--- a/data/historical_estimates/raw/Julian_Beeson_1995_Tables4_5.xlsx
+++ b/data/historical_estimates/raw/Julian_Beeson_1995_Tables4_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225DF209-277E-D44D-8B97-D5CBA159D151}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE2FA5E-68E5-C74F-A13C-81AA98962A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20880" yWindow="3820" windowWidth="25440" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/historical_estimates/raw/Julian_Beeson_1995_Tables4_5.xlsx
+++ b/data/historical_estimates/raw/Julian_Beeson_1995_Tables4_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/historical_estimates/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE2FA5E-68E5-C74F-A13C-81AA98962A3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9115E19F-27E4-C248-BA4E-AE69B0E0EAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20880" yWindow="3820" windowWidth="25440" windowHeight="20700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>Table 4</t>
   </si>
@@ -214,99 +214,6 @@
   </si>
   <si>
     <t>Julian &amp; Beeson 1995</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 1996</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 1997</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 1998</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 1999</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2000</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2001</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2002</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2003</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2004</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2005</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2006</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2007</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2008</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2009</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2010</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2011</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2012</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2013</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2014</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2015</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2016</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2017</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2018</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2019</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2020</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2021</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2022</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2023</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2024</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2025</t>
-  </si>
-  <si>
-    <t>Julian &amp; Beeson 2026</t>
   </si>
 </sst>
 </file>
@@ -736,7 +643,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -902,7 +809,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -952,7 +859,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>0</v>
@@ -1002,7 +909,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
@@ -1067,7 +974,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>0</v>
@@ -1123,7 +1030,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>0</v>
@@ -1188,7 +1095,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>0</v>
@@ -1253,7 +1160,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>0</v>
@@ -1318,7 +1225,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>0</v>
@@ -1368,7 +1275,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>0</v>
@@ -1424,7 +1331,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>0</v>
@@ -1474,7 +1381,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>0</v>
@@ -1524,7 +1431,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>0</v>
@@ -1577,7 +1484,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>0</v>
@@ -1627,7 +1534,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>0</v>
@@ -1680,7 +1587,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>0</v>
@@ -1733,7 +1640,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>0</v>
@@ -1792,7 +1699,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>0</v>
@@ -1848,7 +1755,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>0</v>
@@ -1904,7 +1811,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>0</v>
@@ -1969,7 +1876,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>0</v>
@@ -2022,7 +1929,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>0</v>
@@ -2084,7 +1991,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>0</v>
@@ -2149,7 +2056,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>0</v>
@@ -2199,7 +2106,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>0</v>
@@ -2258,7 +2165,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>30</v>
@@ -2323,7 +2230,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>30</v>
@@ -2388,7 +2295,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>30</v>
@@ -2444,7 +2351,7 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>30</v>
@@ -2497,7 +2404,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>30</v>
@@ -2556,7 +2463,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>30</v>
@@ -2621,7 +2528,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>30</v>
